--- a/Data/Export/Common/武将特性.xlsx
+++ b/Data/Export/Common/武将特性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16AB7E-8771-4E84-85B8-48EE48816F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C10810-512D-4F8F-AAF3-E6D97324D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="253">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,9 +478,6 @@
     <t>洞察</t>
   </si>
   <si>
-    <t>必定可识破敌方部队所施展的部队计略</t>
-  </si>
-  <si>
     <t>火神</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>奇谋</t>
   </si>
   <si>
-    <t>对部队施展部队计略成功率增为２倍</t>
-  </si>
-  <si>
     <t>妖术</t>
   </si>
   <si>
@@ -839,13 +833,36 @@
   </si>
   <si>
     <t>19,0,100,0,0</t>
+  </si>
+  <si>
+    <t>对部队施展部队计略成功率增为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必定可识破敌方部队所施展的部队计略,反击伤害增加为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,0,200,-1,0,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,14 +926,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1046,19 +1076,58 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,10 +1443,10 @@
   <dimension ref="A1:AP104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1392,10 +1461,16 @@
     <col min="8" max="8" width="28.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="9" style="2"/>
+    <col min="18" max="18" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3" style="25" customWidth="1"/>
     <col min="23" max="23" width="14" style="2" customWidth="1"/>
     <col min="24" max="24" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="29" width="9" style="2"/>
@@ -1426,13 +1501,14 @@
       <c r="L1" s="4"/>
       <c r="M1" s="6"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="6"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="6"/>
       <c r="S1" s="4"/>
       <c r="T1" s="6"/>
       <c r="U1" s="4"/>
+      <c r="V1" s="32"/>
       <c r="W1" s="6"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="6"/>
@@ -1469,13 +1545,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="2"/>
       <c r="Q2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="2"/>
       <c r="X2"/>
       <c r="Y2" s="2"/>
@@ -1515,101 +1592,102 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="V3" s="34"/>
+      <c r="W3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="X3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:42" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>4</v>
@@ -1655,7 +1733,7 @@
       <c r="N4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1676,7 +1754,7 @@
       <c r="U4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="W4" s="11" t="s">
@@ -1764,7 +1842,7 @@
       <c r="K5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="16" t="str">
         <f>_xlfn.LET(_xlpm.pp,IF(Q5="","",Q5&amp;",")&amp;IF(R5="","",R5&amp;",")&amp;IF(S5="","",S5&amp;",")&amp;IF(T5="","",T5&amp;",")&amp;IF(U5="","",U5&amp;","), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
@@ -1773,6 +1851,7 @@
       <c r="R5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="16" t="str">
         <f>_xlfn.LET(_xlpm.pp,IF(X5="","",X5&amp;",")&amp;IF(Y5="","",Y5&amp;",")&amp;IF(Z5="","",Z5&amp;",")&amp;IF(AA5="","",AA5&amp;",")&amp;IF(AB5="","",AB5&amp;","), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
@@ -1823,7 +1902,7 @@
       <c r="K6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="16" t="str">
         <f t="shared" ref="P6:P69" si="1">_xlfn.LET(_xlpm.pp,IF(Q6="","",Q6&amp;",")&amp;IF(R6="","",R6&amp;",")&amp;IF(S6="","",S6&amp;",")&amp;IF(T6="","",T6&amp;",")&amp;IF(U6="","",U6&amp;","), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
@@ -1881,7 +1960,7 @@
       <c r="K7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1939,7 +2018,7 @@
       <c r="K8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1997,7 +2076,7 @@
       <c r="K9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2055,7 +2134,7 @@
       <c r="K10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2113,7 +2192,7 @@
       <c r="K11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2171,7 +2250,7 @@
       <c r="K12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2229,7 +2308,7 @@
       <c r="K13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2287,7 +2366,7 @@
       <c r="K14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2345,7 +2424,7 @@
       <c r="K15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2403,7 +2482,7 @@
       <c r="K16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2461,7 +2540,7 @@
       <c r="K17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2519,7 +2598,7 @@
       <c r="K18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2577,7 +2656,7 @@
       <c r="K19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2635,7 +2714,7 @@
       <c r="K20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="O20" s="28"/>
       <c r="P20" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2693,7 +2772,7 @@
       <c r="K21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2751,7 +2830,7 @@
       <c r="K22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2809,7 +2888,7 @@
       <c r="K23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2867,7 +2946,7 @@
       <c r="K24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2925,7 +3004,7 @@
       <c r="K25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2983,7 +3062,7 @@
       <c r="K26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3041,7 +3120,7 @@
       <c r="K27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3099,7 +3178,7 @@
       <c r="K28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3149,8 +3228,8 @@
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="20" t="str">
-        <f t="shared" ref="H29:H38" si="5">_xlfn.LET(_xlpm.pp,IF(I29="","",I29&amp;";")&amp;IF(P29="","",P29&amp;";")&amp;IF(W29="","",W29&amp;";")&amp;IF(AD29="","",AD29&amp;";")&amp;IF(AK29="","",AK29&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
+      <c r="H29" s="18" t="str">
+        <f t="shared" ref="H29:H60" si="5">_xlfn.LET(_xlpm.pp,IF(I29="","",I29&amp;";")&amp;IF(P29="","",P29&amp;";")&amp;IF(W29="","",W29&amp;";")&amp;IF(AD29="","",AD29&amp;";")&amp;IF(AK29="","",AK29&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
       </c>
       <c r="I29" s="16" t="str">
@@ -3161,7 +3240,7 @@
       <c r="K29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3211,7 +3290,7 @@
       <c r="F30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3223,7 +3302,7 @@
       <c r="K30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3273,7 +3352,7 @@
       <c r="F31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3285,7 +3364,7 @@
       <c r="K31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3335,7 +3414,7 @@
       <c r="F32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="20" t="str">
+      <c r="H32" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3347,7 +3426,7 @@
       <c r="K32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="28"/>
       <c r="P32" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3397,7 +3476,7 @@
       <c r="F33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="20" t="str">
+      <c r="H33" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3409,7 +3488,7 @@
       <c r="K33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3459,7 +3538,7 @@
       <c r="F34" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="20" t="str">
+      <c r="H34" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3471,7 +3550,7 @@
       <c r="K34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3521,7 +3600,7 @@
       <c r="F35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="20" t="str">
+      <c r="H35" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3533,7 +3612,7 @@
       <c r="K35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3583,7 +3662,7 @@
       <c r="F36" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="20" t="str">
+      <c r="H36" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3595,7 +3674,7 @@
       <c r="K36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3645,7 +3724,7 @@
       <c r="F37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="20" t="str">
+      <c r="H37" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3657,7 +3736,7 @@
       <c r="K37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3707,7 +3786,7 @@
       <c r="F38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="20" t="str">
+      <c r="H38" s="18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3719,7 +3798,7 @@
       <c r="K38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3753,1076 +3832,1098 @@
       <c r="AO38" s="14"/>
       <c r="AP38" s="14"/>
     </row>
-    <row r="39" spans="2:42" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="18">
+    <row r="39" spans="2:42" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="23">
         <v>2</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="H39" s="20" t="str">
-        <f>_xlfn.LET(_xlpm.pp,IF(I39="","",I39&amp;";")&amp;IF(P39="","",P39&amp;";")&amp;IF(W39="","",W39&amp;";")&amp;IF(AD39="","",AD39&amp;";")&amp;IF(AK39="","",AK39&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
+      <c r="G39" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,3,100,0,1</v>
       </c>
-      <c r="I39" s="21" t="str">
+      <c r="I39" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,3,100,0,1</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="23">
         <v>19</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="23">
         <v>3</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M39" s="18">
+      <c r="L39" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="23">
         <v>0</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="23">
         <v>1</v>
       </c>
-      <c r="O39" s="18"/>
-      <c r="P39" s="21" t="str">
+      <c r="O39" s="29"/>
+      <c r="P39" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="W39" s="21" t="str">
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AD39" s="21" t="str">
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AD39" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AK39" s="21" t="str">
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AK39" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="18"/>
-    </row>
-    <row r="40" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="18">
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+    </row>
+    <row r="40" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="23">
         <v>36</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="23">
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H40" s="20" t="str">
-        <f t="shared" ref="H40:H103" si="6">_xlfn.LET(_xlpm.pp,IF(I40="","",I40&amp;";")&amp;IF(P40="","",P40&amp;";")&amp;IF(W40="","",W40&amp;";")&amp;IF(AD40="","",AD40&amp;";")&amp;IF(AK40="","",AK40&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
+      <c r="G40" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,1,100,0,1</v>
       </c>
-      <c r="I40" s="21" t="str">
+      <c r="I40" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,1,100,0,1</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="23">
         <v>19</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="23">
         <v>1</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M40" s="18">
+      <c r="L40" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="23">
         <v>0</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="23">
         <v>1</v>
       </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="21" t="str">
+      <c r="O40" s="29"/>
+      <c r="P40" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="W40" s="21" t="str">
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AD40" s="21" t="str">
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AD40" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AK40" s="21" t="str">
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AK40" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-    </row>
-    <row r="41" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="18">
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+    </row>
+    <row r="41" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="23">
         <v>37</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="23">
         <v>2</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G41" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,2,100,0,1</v>
       </c>
-      <c r="I41" s="21" t="str">
+      <c r="I41" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,2,100,0,1</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="23">
         <v>19</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="23">
         <v>2</v>
       </c>
-      <c r="L41" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M41" s="18">
+      <c r="L41" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="23">
         <v>0</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="23">
         <v>1</v>
       </c>
-      <c r="O41" s="18"/>
-      <c r="P41" s="21" t="str">
+      <c r="O41" s="29"/>
+      <c r="P41" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="W41" s="21" t="str">
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AD41" s="21" t="str">
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AD41" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AK41" s="21" t="str">
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AK41" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-    </row>
-    <row r="42" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="18">
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+    </row>
+    <row r="42" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="23">
         <v>38</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="23">
         <v>2</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H42" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G42" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,4,100,0,1</v>
       </c>
-      <c r="I42" s="21" t="str">
+      <c r="I42" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,4,100,0,1</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="23">
         <v>19</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="23">
         <v>4</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M42" s="18">
+      <c r="L42" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="23">
         <v>0</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="23">
         <v>1</v>
       </c>
-      <c r="O42" s="18"/>
-      <c r="P42" s="21" t="str">
+      <c r="O42" s="29"/>
+      <c r="P42" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="W42" s="21" t="str">
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AD42" s="21" t="str">
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AD42" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AK42" s="21" t="str">
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AK42" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-    </row>
-    <row r="43" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="18">
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+    </row>
+    <row r="43" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="23">
         <v>39</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="23">
         <v>2</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G43" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,8,100,0,1</v>
       </c>
-      <c r="I43" s="21" t="str">
+      <c r="I43" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,8,100,0,1</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="23">
         <v>19</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="23">
         <v>8</v>
       </c>
-      <c r="L43" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M43" s="18">
+      <c r="L43" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="23">
         <v>0</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="23">
         <v>1</v>
       </c>
-      <c r="O43" s="18"/>
-      <c r="P43" s="21" t="str">
+      <c r="O43" s="29"/>
+      <c r="P43" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="W43" s="21" t="str">
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AD43" s="21" t="str">
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AD43" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AK43" s="21" t="str">
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AK43" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-    </row>
-    <row r="44" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="18">
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+    </row>
+    <row r="44" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="23">
         <v>40</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="23">
         <v>3</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="H44" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G44" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,6,100,0,1</v>
       </c>
-      <c r="I44" s="21" t="str">
+      <c r="I44" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,6,100,0,1</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="23">
         <v>19</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="23">
         <v>6</v>
       </c>
-      <c r="L44" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" s="18">
+      <c r="L44" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="23">
         <v>0</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="23">
         <v>1</v>
       </c>
-      <c r="O44" s="18"/>
-      <c r="P44" s="21" t="str">
+      <c r="O44" s="29"/>
+      <c r="P44" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="W44" s="21" t="str">
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AD44" s="21" t="str">
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AD44" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AK44" s="21" t="str">
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AK44" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AO44" s="18"/>
-      <c r="AP44" s="18"/>
-    </row>
-    <row r="45" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="18">
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+    </row>
+    <row r="45" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="23">
         <v>41</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G45" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,0,100,-1,1</v>
       </c>
-      <c r="I45" s="21" t="str">
+      <c r="I45" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,0,100,-1,1</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="23">
         <v>19</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="23">
         <v>0</v>
       </c>
-      <c r="L45" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M45" s="18">
+      <c r="L45" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="23">
         <v>-1</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="23">
         <v>1</v>
       </c>
-      <c r="O45" s="18"/>
-      <c r="P45" s="21" t="str">
+      <c r="O45" s="29"/>
+      <c r="P45" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="W45" s="21" t="str">
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AD45" s="21" t="str">
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AD45" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AK45" s="21" t="str">
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AK45" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18"/>
-      <c r="AO45" s="18"/>
-      <c r="AP45" s="18"/>
-    </row>
-    <row r="46" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="18">
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+    </row>
+    <row r="46" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="23">
         <v>42</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="23">
         <v>3</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G46" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,1,100,0,0;19,3,100,0,0</v>
       </c>
-      <c r="I46" s="21" t="str">
+      <c r="I46" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,1,100,0,0</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="23">
         <v>19</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="23">
         <v>1</v>
       </c>
-      <c r="L46" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M46" s="18">
+      <c r="L46" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="23">
         <v>0</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="23">
         <v>0</v>
       </c>
-      <c r="O46" s="18"/>
-      <c r="P46" s="21" t="str">
+      <c r="O46" s="29"/>
+      <c r="P46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>19,3,100,0,0</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46" s="23">
         <v>19</v>
       </c>
-      <c r="R46" s="18">
+      <c r="R46" s="23">
         <v>3</v>
       </c>
-      <c r="S46" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="T46" s="18">
+      <c r="S46" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="T46" s="23">
         <v>0</v>
       </c>
-      <c r="U46" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="W46" s="21" t="str">
+      <c r="U46" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V46" s="30"/>
+      <c r="W46" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AD46" s="21" t="str">
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AD46" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE46" s="18"/>
-      <c r="AF46" s="18"/>
-      <c r="AH46" s="18"/>
-      <c r="AK46" s="21" t="str">
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AK46" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL46" s="18"/>
-      <c r="AM46" s="18"/>
-      <c r="AO46" s="18"/>
-    </row>
-    <row r="47" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="18">
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AO46" s="23"/>
+    </row>
+    <row r="47" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="23">
         <v>43</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="23">
         <v>3</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G47" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,3,100,0,0</v>
       </c>
-      <c r="I47" s="21" t="str">
+      <c r="I47" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,3,100,0,0</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="23">
         <v>19</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="23">
         <v>3</v>
       </c>
-      <c r="L47" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M47" s="18">
+      <c r="L47" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="23">
         <v>0</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="23">
         <v>0</v>
       </c>
-      <c r="P47" s="21" t="str">
+      <c r="O47" s="30"/>
+      <c r="P47" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q47" s="18"/>
-      <c r="W47" s="21" t="str">
+      <c r="Q47" s="23"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X47" s="18"/>
-      <c r="AD47" s="21" t="str">
+      <c r="X47" s="23"/>
+      <c r="AD47" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE47" s="18"/>
-      <c r="AK47" s="21" t="str">
+      <c r="AE47" s="23"/>
+      <c r="AK47" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL47" s="18"/>
-    </row>
-    <row r="48" spans="2:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="18">
+      <c r="AL47" s="23"/>
+    </row>
+    <row r="48" spans="2:42" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="23">
         <v>44</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="23">
         <v>3</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G48" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,1,100,0,0</v>
       </c>
-      <c r="I48" s="21" t="str">
+      <c r="I48" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,1,100,0,0</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="23">
         <v>19</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="23">
         <v>1</v>
       </c>
-      <c r="L48" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M48" s="18">
+      <c r="L48" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="23">
         <v>0</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="23">
         <v>0</v>
       </c>
-      <c r="P48" s="21" t="str">
+      <c r="O48" s="30"/>
+      <c r="P48" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q48" s="18"/>
-      <c r="W48" s="21" t="str">
+      <c r="Q48" s="23"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X48" s="18"/>
-      <c r="AD48" s="21" t="str">
+      <c r="X48" s="23"/>
+      <c r="AD48" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE48" s="18"/>
-      <c r="AK48" s="21" t="str">
+      <c r="AE48" s="23"/>
+      <c r="AK48" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL48" s="18"/>
-    </row>
-    <row r="49" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="18">
+      <c r="AL48" s="23"/>
+    </row>
+    <row r="49" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="23">
         <v>45</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="23">
         <v>3</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G49" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,2,100,0,0</v>
       </c>
-      <c r="I49" s="21" t="str">
+      <c r="I49" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,2,100,0,0</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="23">
         <v>19</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="23">
         <v>2</v>
       </c>
-      <c r="L49" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M49" s="18">
+      <c r="L49" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="23">
         <v>0</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="23">
         <v>0</v>
       </c>
-      <c r="P49" s="21" t="str">
+      <c r="O49" s="30"/>
+      <c r="P49" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q49" s="18"/>
-      <c r="W49" s="21" t="str">
+      <c r="Q49" s="23"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X49" s="18"/>
-      <c r="AD49" s="21" t="str">
+      <c r="X49" s="23"/>
+      <c r="AD49" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE49" s="18"/>
-      <c r="AK49" s="21" t="str">
+      <c r="AE49" s="23"/>
+      <c r="AK49" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL49" s="18"/>
-    </row>
-    <row r="50" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="18">
+      <c r="AL49" s="23"/>
+    </row>
+    <row r="50" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="23">
         <v>46</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="23">
         <v>3</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G50" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,4,100,0,0</v>
       </c>
-      <c r="I50" s="21" t="str">
+      <c r="I50" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,4,100,0,0</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="23">
         <v>19</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="23">
         <v>4</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M50" s="18">
+      <c r="L50" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="23">
         <v>0</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="23">
         <v>0</v>
       </c>
-      <c r="P50" s="21" t="str">
+      <c r="O50" s="30"/>
+      <c r="P50" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="W50" s="21" t="str">
+      <c r="Q50" s="23"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X50" s="18"/>
-      <c r="AD50" s="21" t="str">
+      <c r="X50" s="23"/>
+      <c r="AD50" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE50" s="18"/>
-      <c r="AK50" s="21" t="str">
+      <c r="AE50" s="23"/>
+      <c r="AK50" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL50" s="18"/>
-    </row>
-    <row r="51" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="18">
+      <c r="AL50" s="23"/>
+    </row>
+    <row r="51" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="23">
         <v>3</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G51" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,8,100,0,0;19,9,100,0,0</v>
       </c>
-      <c r="I51" s="21" t="str">
+      <c r="I51" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,8,100,0,0</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="23">
         <v>19</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="23">
         <v>8</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M51" s="18">
+      <c r="L51" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="23">
         <v>0</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="23">
         <v>0</v>
       </c>
-      <c r="P51" s="21" t="str">
+      <c r="O51" s="30"/>
+      <c r="P51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>19,9,100,0,0</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="23">
         <v>19</v>
       </c>
-      <c r="R51" s="18">
+      <c r="R51" s="23">
         <v>9</v>
       </c>
-      <c r="S51" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="T51" s="18">
+      <c r="S51" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="T51" s="23">
         <v>0</v>
       </c>
-      <c r="U51" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="W51" s="21" t="str">
+      <c r="U51" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V51" s="30"/>
+      <c r="W51" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X51" s="18"/>
-      <c r="AD51" s="21" t="str">
+      <c r="X51" s="23"/>
+      <c r="AD51" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE51" s="18"/>
-      <c r="AK51" s="21" t="str">
+      <c r="AE51" s="23"/>
+      <c r="AK51" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL51" s="18"/>
-    </row>
-    <row r="52" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="18">
+      <c r="AL51" s="23"/>
+    </row>
+    <row r="52" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="23">
         <v>48</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="23">
         <v>3</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="H52" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G52" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,6,100,0,0</v>
       </c>
-      <c r="I52" s="21" t="str">
+      <c r="I52" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,6,100,0,0</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="23">
         <v>19</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="23">
         <v>6</v>
       </c>
-      <c r="L52" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M52" s="18">
+      <c r="L52" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="23">
         <v>0</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="23">
         <v>0</v>
       </c>
-      <c r="P52" s="21" t="str">
+      <c r="O52" s="30"/>
+      <c r="P52" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q52" s="18"/>
-      <c r="W52" s="21" t="str">
+      <c r="Q52" s="23"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X52" s="18"/>
-      <c r="AD52" s="21" t="str">
+      <c r="X52" s="23"/>
+      <c r="AD52" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE52" s="18"/>
-      <c r="AK52" s="21" t="str">
+      <c r="AE52" s="23"/>
+      <c r="AK52" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL52" s="18"/>
-    </row>
-    <row r="53" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="18">
+      <c r="AL52" s="23"/>
+    </row>
+    <row r="53" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="23">
         <v>49</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="23">
         <v>4</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="H53" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G53" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>19,0,100,0,0</v>
       </c>
-      <c r="I53" s="21" t="str">
+      <c r="I53" s="22" t="str">
         <f t="shared" si="0"/>
         <v>19,0,100,0,0</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="23">
         <v>19</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="23">
         <v>0</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M53" s="18">
+      <c r="L53" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M53" s="23">
         <v>0</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="23">
         <v>0</v>
       </c>
-      <c r="P53" s="21" t="str">
+      <c r="O53" s="30"/>
+      <c r="P53" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q53" s="18"/>
-      <c r="W53" s="21" t="str">
+      <c r="Q53" s="23"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X53" s="18"/>
-      <c r="AD53" s="21" t="str">
+      <c r="X53" s="23"/>
+      <c r="AD53" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE53" s="18"/>
-      <c r="AK53" s="21" t="str">
+      <c r="AE53" s="23"/>
+      <c r="AK53" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL53" s="18"/>
+      <c r="AL53" s="23"/>
     </row>
     <row r="54" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="14">
@@ -4840,8 +4941,8 @@
       <c r="F54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H54" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I54" s="16" t="str">
@@ -4886,9 +4987,9 @@
       <c r="F55" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I55" s="16" t="str">
@@ -4896,11 +4997,13 @@
         <v/>
       </c>
       <c r="J55" s="12"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q55" s="12"/>
+      <c r="V55" s="31"/>
       <c r="W55" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4933,9 +5036,9 @@
       <c r="F56" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I56" s="16" t="str">
@@ -4943,11 +5046,13 @@
         <v/>
       </c>
       <c r="J56" s="12"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q56" s="12"/>
+      <c r="V56" s="31"/>
       <c r="W56" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4980,8 +5085,8 @@
       <c r="F57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H57" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I57" s="16" t="str">
@@ -5026,8 +5131,8 @@
       <c r="F58" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H58" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I58" s="16" t="str">
@@ -5072,8 +5177,8 @@
       <c r="F59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H59" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I59" s="16" t="str">
@@ -5118,8 +5223,8 @@
       <c r="F60" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H60" s="18" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I60" s="16" t="str">
@@ -5164,8 +5269,8 @@
       <c r="F61" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="20" t="str">
-        <f t="shared" si="6"/>
+      <c r="H61" s="18" t="str">
+        <f t="shared" ref="H61:H92" si="6">_xlfn.LET(_xlpm.pp,IF(I61="","",I61&amp;";")&amp;IF(P61="","",P61&amp;";")&amp;IF(W61="","",W61&amp;";")&amp;IF(AD61="","",AD61&amp;";")&amp;IF(AK61="","",AK61&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
       </c>
       <c r="I61" s="16" t="str">
@@ -5210,7 +5315,7 @@
       <c r="F62" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="20" t="str">
+      <c r="H62" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5256,7 +5361,7 @@
       <c r="F63" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="20" t="str">
+      <c r="H63" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5302,7 +5407,7 @@
       <c r="F64" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H64" s="20" t="str">
+      <c r="H64" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5348,7 +5453,7 @@
       <c r="F65" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="20" t="str">
+      <c r="H65" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5378,61 +5483,80 @@
       </c>
       <c r="AL65" s="14"/>
     </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B66" s="14">
+    <row r="66" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="20">
         <v>62</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="14">
+      <c r="D66" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" s="20">
         <v>4</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="20" t="str">
+      <c r="G66" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H66" s="21" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>20,1,0,200,-1,0,0</v>
       </c>
       <c r="I66" s="16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="P66" s="16" t="str">
+        <v>20,1,0,200,-1,0,0</v>
+      </c>
+      <c r="J66" s="20">
+        <v>20</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="O66" s="30"/>
+      <c r="P66" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q66" s="14"/>
-      <c r="W66" s="16" t="str">
+      <c r="Q66" s="20"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X66" s="14"/>
-      <c r="AD66" s="16" t="str">
+      <c r="X66" s="20"/>
+      <c r="AD66" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE66" s="14"/>
-      <c r="AK66" s="16" t="str">
+      <c r="AE66" s="20"/>
+      <c r="AK66" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL66" s="14"/>
+      <c r="AL66" s="20"/>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B67" s="14">
         <v>63</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="E67" s="14">
         <v>4</v>
@@ -5440,7 +5564,7 @@
       <c r="F67" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H67" s="20" t="str">
+      <c r="H67" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5475,10 +5599,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="E68" s="14">
         <v>4</v>
@@ -5486,7 +5610,7 @@
       <c r="F68" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H68" s="20" t="str">
+      <c r="H68" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5521,10 +5645,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="E69" s="14">
         <v>4</v>
@@ -5532,7 +5656,7 @@
       <c r="F69" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H69" s="20" t="str">
+      <c r="H69" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5562,10 +5686,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="E70" s="14">
         <v>3</v>
@@ -5573,7 +5697,7 @@
       <c r="F70" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="20" t="str">
+      <c r="H70" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5603,10 +5727,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E71" s="14">
         <v>3</v>
@@ -5614,7 +5738,7 @@
       <c r="F71" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="20" t="str">
+      <c r="H71" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5644,10 +5768,10 @@
         <v>68</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="E72" s="14">
         <v>3</v>
@@ -5655,7 +5779,7 @@
       <c r="F72" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H72" s="20" t="str">
+      <c r="H72" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5685,10 +5809,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="E73" s="14">
         <v>3</v>
@@ -5696,7 +5820,7 @@
       <c r="F73" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="20" t="str">
+      <c r="H73" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5726,10 +5850,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="E74" s="14">
         <v>3</v>
@@ -5737,7 +5861,7 @@
       <c r="F74" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="20" t="str">
+      <c r="H74" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5767,10 +5891,10 @@
         <v>71</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E75" s="14">
         <v>3</v>
@@ -5778,7 +5902,7 @@
       <c r="F75" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="20" t="str">
+      <c r="H75" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5808,10 +5932,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E76" s="14">
         <v>4</v>
@@ -5819,7 +5943,7 @@
       <c r="F76" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H76" s="20" t="str">
+      <c r="H76" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5849,18 +5973,18 @@
         <v>73</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E77" s="14">
         <v>2</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="H77" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5890,18 +6014,18 @@
         <v>74</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E78" s="14">
         <v>2</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H78" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="H78" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5931,18 +6055,18 @@
         <v>75</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E79" s="14">
         <v>3</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="H79" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5972,19 +6096,19 @@
         <v>76</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" s="12">
         <v>3</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -5992,10 +6116,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O80" s="31"/>
       <c r="P80" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V80" s="31"/>
       <c r="W80" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6014,19 +6140,19 @@
         <v>77</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" s="12">
         <v>2</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6034,10 +6160,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O81" s="31"/>
       <c r="P81" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V81" s="31"/>
       <c r="W81" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6056,19 +6184,19 @@
         <v>78</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E82" s="12">
         <v>2</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6076,10 +6204,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O82" s="31"/>
       <c r="P82" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V82" s="31"/>
       <c r="W82" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6098,19 +6228,19 @@
         <v>79</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E83" s="12">
         <v>2</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6118,10 +6248,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O83" s="31"/>
       <c r="P83" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V83" s="31"/>
       <c r="W83" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6140,10 +6272,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E84" s="12">
         <v>2</v>
@@ -6151,8 +6283,8 @@
       <c r="F84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="20" t="str">
+      <c r="G84" s="19"/>
+      <c r="H84" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6160,10 +6292,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O84" s="31"/>
       <c r="P84" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V84" s="31"/>
       <c r="W84" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6182,10 +6316,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E85" s="12">
         <v>2</v>
@@ -6193,8 +6327,8 @@
       <c r="F85" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20" t="str">
+      <c r="G85" s="19"/>
+      <c r="H85" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6202,10 +6336,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O85" s="31"/>
       <c r="P85" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V85" s="31"/>
       <c r="W85" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6224,10 +6360,10 @@
         <v>82</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E86" s="12">
         <v>2</v>
@@ -6235,8 +6371,8 @@
       <c r="F86" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="20" t="str">
+      <c r="G86" s="19"/>
+      <c r="H86" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6244,10 +6380,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O86" s="31"/>
       <c r="P86" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V86" s="31"/>
       <c r="W86" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6269,7 +6407,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E87" s="12">
         <v>2</v>
@@ -6277,8 +6415,8 @@
       <c r="F87" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20" t="str">
+      <c r="G87" s="19"/>
+      <c r="H87" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6286,10 +6424,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O87" s="31"/>
       <c r="P87" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V87" s="31"/>
       <c r="W87" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6308,10 +6448,10 @@
         <v>84</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E88" s="12">
         <v>2</v>
@@ -6319,8 +6459,8 @@
       <c r="F88" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="20" t="str">
+      <c r="G88" s="19"/>
+      <c r="H88" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6328,10 +6468,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O88" s="31"/>
       <c r="P88" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V88" s="31"/>
       <c r="W88" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6350,10 +6492,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E89" s="12">
         <v>2</v>
@@ -6361,8 +6503,8 @@
       <c r="F89" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20" t="str">
+      <c r="G89" s="19"/>
+      <c r="H89" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6370,10 +6512,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O89" s="31"/>
       <c r="P89" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V89" s="31"/>
       <c r="W89" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6392,10 +6536,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E90" s="12">
         <v>2</v>
@@ -6403,8 +6547,8 @@
       <c r="F90" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="20" t="str">
+      <c r="G90" s="19"/>
+      <c r="H90" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6412,10 +6556,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O90" s="31"/>
       <c r="P90" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V90" s="31"/>
       <c r="W90" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6434,10 +6580,10 @@
         <v>87</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E91" s="12">
         <v>2</v>
@@ -6445,8 +6591,8 @@
       <c r="F91" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="20" t="str">
+      <c r="G91" s="19"/>
+      <c r="H91" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6454,10 +6600,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O91" s="31"/>
       <c r="P91" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V91" s="31"/>
       <c r="W91" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6476,19 +6624,19 @@
         <v>88</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E92" s="12">
         <v>3</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="20" t="str">
+        <v>191</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6496,10 +6644,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O92" s="31"/>
       <c r="P92" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V92" s="31"/>
       <c r="W92" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6518,30 +6668,32 @@
         <v>89</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E93" s="12">
         <v>3</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="18" t="str">
+        <f t="shared" ref="H93:H124" si="12">_xlfn.LET(_xlpm.pp,IF(I93="","",I93&amp;";")&amp;IF(P93="","",P93&amp;";")&amp;IF(W93="","",W93&amp;";")&amp;IF(AD93="","",AD93&amp;";")&amp;IF(AK93="","",AK93&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>
       </c>
       <c r="I93" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O93" s="31"/>
       <c r="P93" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V93" s="31"/>
       <c r="W93" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6560,30 +6712,32 @@
         <v>90</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E94" s="12">
         <v>3</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I94" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O94" s="31"/>
       <c r="P94" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V94" s="31"/>
       <c r="W94" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6602,30 +6756,32 @@
         <v>91</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" s="12">
         <v>3</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I95" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O95" s="31"/>
       <c r="P95" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V95" s="31"/>
       <c r="W95" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6644,30 +6800,32 @@
         <v>92</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E96" s="12">
         <v>2</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G96" s="19"/>
+      <c r="H96" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I96" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O96" s="31"/>
       <c r="P96" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V96" s="31"/>
       <c r="W96" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6686,30 +6844,32 @@
         <v>93</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E97" s="12">
         <v>2</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I97" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O97" s="31"/>
       <c r="P97" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V97" s="31"/>
       <c r="W97" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6728,30 +6888,32 @@
         <v>94</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E98" s="12">
         <v>2</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G98" s="19"/>
+      <c r="H98" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I98" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O98" s="31"/>
       <c r="P98" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V98" s="31"/>
       <c r="W98" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6770,30 +6932,32 @@
         <v>95</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E99" s="12">
         <v>2</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G99" s="19"/>
+      <c r="H99" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I99" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O99" s="31"/>
       <c r="P99" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V99" s="31"/>
       <c r="W99" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6812,30 +6976,32 @@
         <v>96</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E100" s="12">
         <v>2</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I100" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O100" s="31"/>
       <c r="P100" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V100" s="31"/>
       <c r="W100" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6854,30 +7020,32 @@
         <v>97</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" s="12">
         <v>2</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I101" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O101" s="31"/>
       <c r="P101" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V101" s="31"/>
       <c r="W101" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6896,30 +7064,32 @@
         <v>98</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E102" s="12">
         <v>2</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I102" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O102" s="31"/>
       <c r="P102" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V102" s="31"/>
       <c r="W102" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6938,30 +7108,32 @@
         <v>99</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E103" s="12">
         <v>2</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="20" t="str">
-        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G103" s="19"/>
+      <c r="H103" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I103" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O103" s="31"/>
       <c r="P103" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V103" s="31"/>
       <c r="W103" s="16" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6980,30 +7152,32 @@
         <v>100</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E104" s="12">
         <v>2</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20" t="str">
-        <f t="shared" ref="H104" si="12">_xlfn.LET(_xlpm.pp,IF(I104="","",I104&amp;";")&amp;IF(P104="","",P104&amp;";")&amp;IF(W104="","",W104&amp;";")&amp;IF(AD104="","",AD104&amp;";")&amp;IF(AK104="","",AK104&amp;";"), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
+        <v>217</v>
+      </c>
+      <c r="G104" s="19"/>
+      <c r="H104" s="18" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I104" s="16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="O104" s="31"/>
       <c r="P104" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="V104" s="31"/>
       <c r="W104" s="13" t="str">
         <f t="shared" ref="W104" si="13">_xlfn.LET(_xlpm.pp,IF(X104=0,"",X104&amp;",")&amp;IF(Y104=0,"",Y104&amp;",")&amp;IF(Z104=0,"",Z104&amp;",")&amp;IF(AA104=0,"",AA104&amp;",")&amp;IF(AB104=0,"",AB104&amp;","), IF(LEN(_xlpm.pp)&gt;0,LEFT(_xlpm.pp,LEN(_xlpm.pp)-1),_xlpm.pp))</f>
         <v/>

--- a/Data/Export/Common/武将特性.xlsx
+++ b/Data/Export/Common/武将特性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A0A6E-8595-433E-8175-BA1C24BD10D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1923C86A-0CEF-4820-8F7D-2828B7D048FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1770" windowWidth="23280" windowHeight="11625" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="246">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,67 +749,98 @@
     <t>actionEntities</t>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[4]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[3]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[1]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[2]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[3,1], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, isNormal:-1, conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100,conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[4],conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[2], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[1], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[3], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[11,12,13,14]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100, kinds:[8,9,10], checkLand:2}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCriticalAction", value:100}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateAttackBackAction", value:200, isAttacker:1, isRange:-1}]</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isAttacker:1, isRange:-1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100,conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], conditionId:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[11,12,13,14]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:150, jobIds:[6]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:200, jobIds:[8]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:200, jobIds:[12]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[10]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[11]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了反击伤害倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,12 +907,13 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1015,13 +1047,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,13 +1366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,12 +1382,14 @@
     <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="118.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1365,10 +1399,11 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1378,8 +1413,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1398,11 +1434,12 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1419,13 +1456,16 @@
         <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1438,11 +1478,14 @@
       <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="11">
         <v>2</v>
@@ -1456,11 +1499,14 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1473,11 +1519,14 @@
       <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1490,11 +1539,14 @@
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1507,11 +1559,14 @@
       <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1524,11 +1579,14 @@
       <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <v>7</v>
       </c>
@@ -1541,11 +1599,14 @@
       <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1558,11 +1619,14 @@
       <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <v>9</v>
       </c>
@@ -1575,11 +1639,14 @@
       <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1592,11 +1659,14 @@
       <c r="E14" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -1609,11 +1679,14 @@
       <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1626,11 +1699,14 @@
       <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1643,11 +1719,14 @@
       <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1660,11 +1739,14 @@
       <c r="E18" s="11">
         <v>2</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <v>15</v>
       </c>
@@ -1677,11 +1759,14 @@
       <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1694,11 +1779,14 @@
       <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
         <v>17</v>
       </c>
@@ -1711,11 +1799,14 @@
       <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="11">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
         <v>18</v>
       </c>
@@ -1728,11 +1819,14 @@
       <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1745,11 +1839,14 @@
       <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="11">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -1762,11 +1859,14 @@
       <c r="E24" s="11">
         <v>2</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
         <v>21</v>
       </c>
@@ -1779,11 +1879,14 @@
       <c r="E25" s="11">
         <v>2</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="11">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <v>22</v>
       </c>
@@ -1796,11 +1899,14 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="11">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
         <v>23</v>
       </c>
@@ -1813,11 +1919,14 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="11">
+        <v>2</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
         <v>24</v>
       </c>
@@ -1830,11 +1939,14 @@
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
         <v>25</v>
       </c>
@@ -1847,11 +1959,14 @@
       <c r="E29" s="11">
         <v>2</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="11">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
         <v>26</v>
       </c>
@@ -1864,11 +1979,14 @@
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
         <v>27</v>
       </c>
@@ -1881,11 +1999,14 @@
       <c r="E31" s="11">
         <v>2</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="11">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
         <v>28</v>
       </c>
@@ -1898,11 +2019,14 @@
       <c r="E32" s="11">
         <v>2</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="11">
+        <v>3</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
         <v>29</v>
       </c>
@@ -1915,11 +2039,14 @@
       <c r="E33" s="11">
         <v>2</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="11">
+        <v>3</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
         <v>30</v>
       </c>
@@ -1932,11 +2059,14 @@
       <c r="E34" s="11">
         <v>2</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="11">
+        <v>3</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
         <v>31</v>
       </c>
@@ -1949,11 +2079,14 @@
       <c r="E35" s="11">
         <v>2</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="11">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
         <v>32</v>
       </c>
@@ -1966,11 +2099,14 @@
       <c r="E36" s="11">
         <v>2</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="11">
+        <v>3</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
         <v>33</v>
       </c>
@@ -1983,11 +2119,14 @@
       <c r="E37" s="11">
         <v>4</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="11">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
         <v>34</v>
       </c>
@@ -2000,11 +2139,14 @@
       <c r="E38" s="11">
         <v>2</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="11">
+        <v>3</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
@@ -2017,14 +2159,17 @@
       <c r="E39" s="18">
         <v>2</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
         <v>36</v>
       </c>
@@ -2037,14 +2182,17 @@
       <c r="E40" s="18">
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H40" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
         <v>37</v>
       </c>
@@ -2057,14 +2205,17 @@
       <c r="E41" s="18">
         <v>2</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H41" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
         <v>38</v>
       </c>
@@ -2077,14 +2228,17 @@
       <c r="E42" s="18">
         <v>2</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="H42" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="18">
         <v>39</v>
       </c>
@@ -2097,14 +2251,17 @@
       <c r="E43" s="18">
         <v>2</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H43" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>40</v>
       </c>
@@ -2117,14 +2274,17 @@
       <c r="E44" s="18">
         <v>3</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H44" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>41</v>
       </c>
@@ -2137,14 +2297,17 @@
       <c r="E45" s="18">
         <v>4</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H45" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
         <v>42</v>
       </c>
@@ -2157,14 +2320,17 @@
       <c r="E46" s="18">
         <v>3</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H46" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -2177,14 +2343,17 @@
       <c r="E47" s="18">
         <v>3</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H47" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
@@ -2197,14 +2366,17 @@
       <c r="E48" s="18">
         <v>3</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="18">
+        <v>2</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H48" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>45</v>
       </c>
@@ -2217,14 +2389,17 @@
       <c r="E49" s="18">
         <v>3</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H49" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>46</v>
       </c>
@@ -2237,14 +2412,17 @@
       <c r="E50" s="18">
         <v>3</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="18">
+        <v>2</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
         <v>47</v>
       </c>
@@ -2257,14 +2435,17 @@
       <c r="E51" s="18">
         <v>3</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="18">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H51" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>48</v>
       </c>
@@ -2277,14 +2458,17 @@
       <c r="E52" s="18">
         <v>3</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H52" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="18">
         <v>49</v>
       </c>
@@ -2297,14 +2481,17 @@
       <c r="E53" s="18">
         <v>4</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H53" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
         <v>50</v>
       </c>
@@ -2317,11 +2504,14 @@
       <c r="E54" s="11">
         <v>3</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="16">
+        <v>2</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -2334,12 +2524,15 @@
       <c r="E55" s="9">
         <v>2</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="16">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -2352,12 +2545,15 @@
       <c r="E56" s="9">
         <v>2</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="16">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
         <v>53</v>
       </c>
@@ -2370,11 +2566,14 @@
       <c r="E57" s="11">
         <v>2</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="11">
+        <v>3</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="11">
         <v>54</v>
       </c>
@@ -2387,11 +2586,14 @@
       <c r="E58" s="11">
         <v>3</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="11">
+        <v>4</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="11">
         <v>55</v>
       </c>
@@ -2404,11 +2606,14 @@
       <c r="E59" s="11">
         <v>3</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="11">
+        <v>4</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="11">
         <v>56</v>
       </c>
@@ -2421,11 +2626,14 @@
       <c r="E60" s="11">
         <v>3</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="11">
+        <v>4</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="11">
         <v>57</v>
       </c>
@@ -2438,11 +2646,14 @@
       <c r="E61" s="11">
         <v>3</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="11">
+        <v>4</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="11">
         <v>58</v>
       </c>
@@ -2455,11 +2666,14 @@
       <c r="E62" s="11">
         <v>4</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="11">
+        <v>4</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="11">
         <v>59</v>
       </c>
@@ -2472,11 +2686,14 @@
       <c r="E63" s="11">
         <v>2</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="11">
+        <v>4</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>60</v>
       </c>
@@ -2489,11 +2706,14 @@
       <c r="E64" s="11">
         <v>2</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="11">
+        <v>4</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="11">
         <v>61</v>
       </c>
@@ -2506,31 +2726,40 @@
       <c r="E65" s="11">
         <v>3</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="11">
+        <v>4</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="16">
+    <row r="66" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="18">
         <v>62</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="18">
         <v>4</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="18">
+        <v>4</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11">
         <v>63</v>
       </c>
@@ -2543,11 +2772,14 @@
       <c r="E67" s="11">
         <v>4</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="11">
+        <v>4</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11">
         <v>64</v>
       </c>
@@ -2560,11 +2792,14 @@
       <c r="E68" s="11">
         <v>4</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="11">
+        <v>4</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11">
         <v>65</v>
       </c>
@@ -2577,11 +2812,14 @@
       <c r="E69" s="11">
         <v>4</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="11">
+        <v>4</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="11">
         <v>66</v>
       </c>
@@ -2594,11 +2832,14 @@
       <c r="E70" s="11">
         <v>3</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="11">
+        <v>4</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
         <v>67</v>
       </c>
@@ -2611,11 +2852,14 @@
       <c r="E71" s="11">
         <v>3</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="11">
+        <v>4</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="11">
         <v>68</v>
       </c>
@@ -2628,11 +2872,14 @@
       <c r="E72" s="11">
         <v>3</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="11">
+        <v>4</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="11">
         <v>69</v>
       </c>
@@ -2645,11 +2892,14 @@
       <c r="E73" s="11">
         <v>3</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="11">
+        <v>4</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
         <v>70</v>
       </c>
@@ -2662,11 +2912,14 @@
       <c r="E74" s="11">
         <v>3</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="11">
+        <v>4</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="11">
         <v>71</v>
       </c>
@@ -2679,11 +2932,14 @@
       <c r="E75" s="11">
         <v>3</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="11">
+        <v>4</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
         <v>72</v>
       </c>
@@ -2696,11 +2952,14 @@
       <c r="E76" s="11">
         <v>4</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="11">
+        <v>4</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
         <v>73</v>
       </c>
@@ -2713,11 +2972,14 @@
       <c r="E77" s="11">
         <v>2</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="11">
+        <v>5</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
         <v>74</v>
       </c>
@@ -2730,11 +2992,14 @@
       <c r="E78" s="11">
         <v>2</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="11">
+        <v>5</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
         <v>75</v>
       </c>
@@ -2747,11 +3012,14 @@
       <c r="E79" s="11">
         <v>3</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="11">
+        <v>5</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -2764,12 +3032,15 @@
       <c r="E80" s="9">
         <v>3</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="11">
+        <v>5</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -2782,12 +3053,15 @@
       <c r="E81" s="9">
         <v>2</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="11">
+        <v>5</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -2800,12 +3074,15 @@
       <c r="E82" s="9">
         <v>2</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="11">
+        <v>5</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -2818,102 +3095,130 @@
       <c r="E83" s="9">
         <v>2</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="11">
+        <v>5</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="9">
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="18">
         <v>80</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="9">
-        <v>2</v>
-      </c>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="18">
+        <v>2</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="9">
+      <c r="H84" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="18">
         <v>81</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E85" s="9">
-        <v>2</v>
-      </c>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="18">
+        <v>2</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="9">
+      <c r="H85" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="18">
         <v>82</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="9">
-        <v>2</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="9">
+      <c r="H86" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="18">
         <v>83</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E87" s="9">
-        <v>2</v>
-      </c>
-      <c r="F87" s="9" t="s">
+      <c r="E87" s="18">
+        <v>2</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="9">
+      <c r="H87" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="18">
         <v>84</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E88" s="9">
-        <v>2</v>
-      </c>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="18">
+        <v>2</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H88" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -2926,12 +3231,15 @@
       <c r="E89" s="9">
         <v>2</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -2944,12 +3252,15 @@
       <c r="E90" s="9">
         <v>2</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="9">
+        <v>6</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -2962,12 +3273,15 @@
       <c r="E91" s="9">
         <v>2</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="9">
+        <v>6</v>
+      </c>
+      <c r="G91" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -2980,12 +3294,15 @@
       <c r="E92" s="9">
         <v>3</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="9">
+        <v>7</v>
+      </c>
+      <c r="G92" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -2998,12 +3315,15 @@
       <c r="E93" s="9">
         <v>3</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="9">
+        <v>7</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -3016,12 +3336,15 @@
       <c r="E94" s="9">
         <v>3</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="9">
+        <v>7</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -3034,12 +3357,15 @@
       <c r="E95" s="9">
         <v>3</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="9">
+        <v>7</v>
+      </c>
+      <c r="G95" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -3052,12 +3378,15 @@
       <c r="E96" s="9">
         <v>2</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="9">
+        <v>8</v>
+      </c>
+      <c r="G96" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -3070,12 +3399,15 @@
       <c r="E97" s="9">
         <v>2</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="9">
+        <v>8</v>
+      </c>
+      <c r="G97" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G97" s="15"/>
-    </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -3088,12 +3420,15 @@
       <c r="E98" s="9">
         <v>2</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="9">
+        <v>8</v>
+      </c>
+      <c r="G98" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -3106,12 +3441,15 @@
       <c r="E99" s="9">
         <v>2</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="9">
+        <v>8</v>
+      </c>
+      <c r="G99" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -3124,12 +3462,15 @@
       <c r="E100" s="9">
         <v>2</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="9">
+        <v>8</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -3142,12 +3483,15 @@
       <c r="E101" s="9">
         <v>2</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="9">
+        <v>8</v>
+      </c>
+      <c r="G101" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="15"/>
-    </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -3160,12 +3504,15 @@
       <c r="E102" s="9">
         <v>2</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="9">
+        <v>8</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G102" s="15"/>
-    </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -3178,12 +3525,15 @@
       <c r="E103" s="9">
         <v>2</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="9">
+        <v>8</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G103" s="15"/>
-    </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="9">
         <v>100</v>
       </c>
@@ -3196,10 +3546,13 @@
       <c r="E104" s="9">
         <v>2</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="9">
+        <v>9</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
